--- a/MISC_FILES/CS5200 Project Rubric.xlsx
+++ b/MISC_FILES/CS5200 Project Rubric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DB\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DB\workspace\LMS\MISC_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,7 +165,7 @@
     <t>1 out of 30 can be infinite (like post button)</t>
   </si>
   <si>
-    <t>2 in thread view , 2 in job view, 1 in course schedule</t>
+    <t>2 in thread view , 2 in job view, 1 in course schedule, add TA</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,7 +837,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>

--- a/MISC_FILES/CS5200 Project Rubric.xlsx
+++ b/MISC_FILES/CS5200 Project Rubric.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>2 in thread view , 2 in job view, 1 in course schedule, add TA</t>
+  </si>
+  <si>
+    <t>jQuery, jQuery text editor, bootstrap</t>
+  </si>
+  <si>
+    <t>jQuery text editor, bootstrap</t>
   </si>
 </sst>
 </file>
@@ -505,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,19 +853,31 @@
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
